--- a/datainsamling_blocket.xlsx
+++ b/datainsamling_blocket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HV-filesync\tara0001\Desktop\Data Scientist\R Programmering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1718C92-E992-4E04-A3AF-23E8FD5E1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CE2E8-E438-497B-A2E7-374E16893C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEC3F5B5-7817-4CED-B248-53C5153428D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="374">
   <si>
     <t>Försäljningspris</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>VIt</t>
-  </si>
-  <si>
-    <t>Miljöbränsle/ Hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">V90 </t>
@@ -1593,13 +1590,15 @@
   <dimension ref="A1:N918"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E294" sqref="E1:E1048576"/>
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -1617,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2233,7 +2232,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
@@ -2277,7 +2276,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -2321,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -2409,7 +2408,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -2497,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
@@ -2541,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>34</v>
@@ -3947,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -4035,7 +4034,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -4209,7 +4208,7 @@
         <v>32</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>34</v>
@@ -4253,7 +4252,7 @@
         <v>32</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>34</v>
@@ -4297,7 +4296,7 @@
         <v>32</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>34</v>
@@ -4473,7 +4472,7 @@
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>34</v>
@@ -5485,7 +5484,7 @@
         <v>32</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -5925,7 +5924,7 @@
         <v>32</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>34</v>
@@ -6409,7 +6408,7 @@
         <v>13</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -6541,7 +6540,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>34</v>
@@ -6885,7 +6884,7 @@
         <v>32</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>34</v>
@@ -7193,7 +7192,7 @@
         <v>32</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>34</v>
@@ -7281,7 +7280,7 @@
         <v>32</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -7413,7 +7412,7 @@
         <v>32</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>34</v>
@@ -7941,7 +7940,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>34</v>
@@ -7985,7 +7984,7 @@
         <v>32</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>34</v>
@@ -8073,7 +8072,7 @@
         <v>32</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>34</v>
@@ -8469,7 +8468,7 @@
         <v>32</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>15</v>
@@ -8601,7 +8600,7 @@
         <v>70</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
@@ -8777,7 +8776,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>34</v>
@@ -8865,7 +8864,7 @@
         <v>70</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>34</v>
@@ -8997,7 +8996,7 @@
         <v>32</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>34</v>
@@ -9085,7 +9084,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>34</v>
@@ -9217,7 +9216,7 @@
         <v>32</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>34</v>
@@ -9261,7 +9260,7 @@
         <v>32</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>34</v>
@@ -9305,7 +9304,7 @@
         <v>32</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>34</v>
@@ -9349,7 +9348,7 @@
         <v>32</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>34</v>
@@ -9745,7 +9744,7 @@
         <v>32</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>34</v>
@@ -9965,7 +9964,7 @@
         <v>32</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>34</v>
@@ -10317,7 +10316,7 @@
         <v>32</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>34</v>
@@ -10623,7 +10622,7 @@
         <v>32</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>34</v>
@@ -10667,7 +10666,7 @@
         <v>32</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>34</v>
@@ -11237,7 +11236,7 @@
         <v>32</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>34</v>
@@ -11325,7 +11324,7 @@
         <v>32</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>34</v>
@@ -11369,7 +11368,7 @@
         <v>32</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>34</v>
@@ -11589,7 +11588,7 @@
         <v>32</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>34</v>
@@ -11633,7 +11632,7 @@
         <v>32</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>34</v>
@@ -11677,7 +11676,7 @@
         <v>32</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>34</v>
@@ -11721,7 +11720,7 @@
         <v>32</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>34</v>
@@ -11765,7 +11764,7 @@
         <v>32</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>34</v>
@@ -11897,7 +11896,7 @@
         <v>32</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>34</v>
@@ -11985,7 +11984,7 @@
         <v>32</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>34</v>
@@ -12201,7 +12200,7 @@
         <v>32</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>34</v>
@@ -12421,7 +12420,7 @@
         <v>32</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>34</v>
@@ -12639,7 +12638,7 @@
         <v>32</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>34</v>
@@ -12901,7 +12900,7 @@
         <v>32</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>34</v>
@@ -12945,7 +12944,7 @@
         <v>32</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>34</v>
@@ -12989,7 +12988,7 @@
         <v>32</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>34</v>
@@ -13033,7 +13032,7 @@
         <v>32</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>34</v>
@@ -13077,7 +13076,7 @@
         <v>32</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>34</v>
@@ -13121,7 +13120,7 @@
         <v>32</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>34</v>
@@ -13209,7 +13208,7 @@
         <v>32</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>34</v>
@@ -13605,7 +13604,7 @@
         <v>132</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>34</v>
@@ -13867,7 +13866,7 @@
         <v>32</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>34</v>
@@ -14175,7 +14174,7 @@
         <v>32</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>34</v>
@@ -14219,7 +14218,7 @@
         <v>132</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>34</v>
@@ -14395,7 +14394,7 @@
         <v>132</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>34</v>
@@ -14483,7 +14482,7 @@
         <v>32</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>34</v>
@@ -15275,7 +15274,7 @@
         <v>32</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>34</v>
@@ -15363,7 +15362,7 @@
         <v>32</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>34</v>
@@ -15539,7 +15538,7 @@
         <v>13</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>15</v>
@@ -15891,7 +15890,7 @@
         <v>32</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>34</v>
@@ -15979,7 +15978,7 @@
         <v>32</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>34</v>
@@ -16155,7 +16154,7 @@
         <v>32</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>34</v>
@@ -16551,7 +16550,7 @@
         <v>32</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>34</v>
@@ -16859,7 +16858,7 @@
         <v>32</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>34</v>
@@ -17123,7 +17122,7 @@
         <v>32</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>34</v>
@@ -17387,7 +17386,7 @@
         <v>32</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>34</v>
@@ -17597,7 +17596,7 @@
         <v>32</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>34</v>
@@ -17729,7 +17728,7 @@
         <v>32</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>34</v>
@@ -18037,7 +18036,7 @@
         <v>32</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>34</v>
@@ -18169,7 +18168,7 @@
         <v>32</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>34</v>
@@ -18433,7 +18432,7 @@
         <v>32</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>34</v>
@@ -19049,7 +19048,7 @@
         <v>32</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>34</v>
@@ -19533,7 +19532,7 @@
         <v>32</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>34</v>
@@ -19874,7 +19873,7 @@
         <v>19</v>
       </c>
       <c r="N416" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
@@ -20105,7 +20104,7 @@
         <v>32</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>34</v>
@@ -20147,7 +20146,7 @@
         <v>13</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>15</v>
@@ -20455,7 +20454,7 @@
         <v>32</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>34</v>
@@ -20763,7 +20762,7 @@
         <v>32</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>34</v>
@@ -21071,7 +21070,7 @@
         <v>32</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>34</v>
@@ -21444,7 +21443,7 @@
         <v>236</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K452" s="4">
         <v>1969</v>
@@ -21461,7 +21460,7 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>32</v>
@@ -21473,7 +21472,7 @@
         <v>34</v>
       </c>
       <c r="E453" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F453" s="3">
         <v>2022</v>
@@ -21491,7 +21490,7 @@
         <v>29</v>
       </c>
       <c r="K453" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L453" s="5">
         <v>44651</v>
@@ -21511,13 +21510,13 @@
         <v>32</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E454" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F454" s="3">
         <v>2023</v>
@@ -21535,7 +21534,7 @@
         <v>24</v>
       </c>
       <c r="K454" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L454" s="5">
         <v>44844</v>
@@ -21555,13 +21554,13 @@
         <v>32</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E455" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F455" s="3">
         <v>2023</v>
@@ -21573,13 +21572,13 @@
         <v>36</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J455" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K455" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L455" s="5">
         <v>45028</v>
@@ -21605,7 +21604,7 @@
         <v>34</v>
       </c>
       <c r="E456" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F456" s="3">
         <v>2004</v>
@@ -21617,13 +21616,13 @@
         <v>17</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J456" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K456" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L456" s="5">
         <v>37883</v>
@@ -21643,13 +21642,13 @@
         <v>32</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E457" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F457" s="3">
         <v>2022</v>
@@ -21661,13 +21660,13 @@
         <v>36</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J457" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K457" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L457" s="5">
         <v>44362</v>
@@ -21687,13 +21686,13 @@
         <v>32</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E458" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F458" s="3">
         <v>2011</v>
@@ -21705,13 +21704,13 @@
         <v>17</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J458" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K458" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L458" s="5">
         <v>40672</v>
@@ -21737,7 +21736,7 @@
         <v>34</v>
       </c>
       <c r="E459" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F459" s="3">
         <v>2019</v>
@@ -21749,13 +21748,13 @@
         <v>17</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J459" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K459" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L459" s="5">
         <v>43628</v>
@@ -21775,13 +21774,13 @@
         <v>32</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E460" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F460" s="3">
         <v>2020</v>
@@ -21793,13 +21792,13 @@
         <v>36</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J460" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K460" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L460" s="5">
         <v>43990</v>
@@ -21819,13 +21818,13 @@
         <v>32</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E461" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F461" s="3">
         <v>2020</v>
@@ -21837,13 +21836,13 @@
         <v>36</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J461" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K461" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L461" s="5">
         <v>43980</v>
@@ -21863,13 +21862,13 @@
         <v>32</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E462" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F462" s="3">
         <v>2011</v>
@@ -21881,13 +21880,13 @@
         <v>17</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J462" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K462" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L462" s="5">
         <v>40494</v>
@@ -21901,19 +21900,19 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E463" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E463" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="F463" s="3">
         <v>2015</v>
@@ -21925,13 +21924,13 @@
         <v>36</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K463" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L463" s="5">
         <v>42072</v>
@@ -21957,7 +21956,7 @@
         <v>34</v>
       </c>
       <c r="E464" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F464" s="3">
         <v>2023</v>
@@ -21969,13 +21968,13 @@
         <v>17</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J464" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K464" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L464" s="5">
         <v>45176</v>
@@ -22001,7 +22000,7 @@
         <v>34</v>
       </c>
       <c r="E465" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F465" s="3">
         <v>2020</v>
@@ -22013,13 +22012,13 @@
         <v>17</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J465" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K465" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L465" s="5">
         <v>43811</v>
@@ -22045,7 +22044,7 @@
         <v>34</v>
       </c>
       <c r="E466" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F466" s="3">
         <v>2017</v>
@@ -22057,13 +22056,13 @@
         <v>36</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J466" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K466" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L466" s="5">
         <v>42656</v>
@@ -22083,13 +22082,13 @@
         <v>32</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E467" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F467" s="3">
         <v>2021</v>
@@ -22101,13 +22100,13 @@
         <v>36</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J467" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K467" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L467" s="5">
         <v>44057</v>
@@ -22133,7 +22132,7 @@
         <v>34</v>
       </c>
       <c r="E468" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F468" s="3">
         <v>2021</v>
@@ -22145,13 +22144,13 @@
         <v>36</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J468" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K468" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L468" s="5">
         <v>44119</v>
@@ -22177,7 +22176,7 @@
         <v>34</v>
       </c>
       <c r="E469" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F469" s="3">
         <v>2011</v>
@@ -22189,13 +22188,13 @@
         <v>36</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J469" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K469" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L469" s="5">
         <v>40333</v>
@@ -22221,7 +22220,7 @@
         <v>34</v>
       </c>
       <c r="E470" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F470" s="3">
         <v>2022</v>
@@ -22233,13 +22232,13 @@
         <v>17</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J470" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K470" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L470" s="5">
         <v>44602</v>
@@ -22277,10 +22276,10 @@
         <v>36</v>
       </c>
       <c r="I471" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J471" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="J471" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="K471" s="4"/>
       <c r="L471" s="5">
@@ -22307,7 +22306,7 @@
         <v>34</v>
       </c>
       <c r="E472" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F472" s="3">
         <v>2024</v>
@@ -22319,7 +22318,7 @@
         <v>17</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J472" s="3" t="s">
         <v>39</v>
@@ -22349,7 +22348,7 @@
         <v>34</v>
       </c>
       <c r="E473" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F473" s="3">
         <v>2017</v>
@@ -22361,13 +22360,13 @@
         <v>17</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J473" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K473" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L473" s="5">
         <v>42811</v>
@@ -22393,7 +22392,7 @@
         <v>34</v>
       </c>
       <c r="E474" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F474" s="3">
         <v>2022</v>
@@ -22405,13 +22404,13 @@
         <v>17</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J474" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K474" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L474" s="5">
         <v>44411</v>
@@ -22425,7 +22424,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>32</v>
@@ -22437,7 +22436,7 @@
         <v>34</v>
       </c>
       <c r="E475" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F475" s="3">
         <v>2022</v>
@@ -22449,7 +22448,7 @@
         <v>17</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J475" s="3" t="s">
         <v>39</v>
@@ -22479,7 +22478,7 @@
         <v>34</v>
       </c>
       <c r="E476" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F476" s="3">
         <v>2023</v>
@@ -22491,13 +22490,13 @@
         <v>17</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J476" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K476" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L476" s="5">
         <v>45071</v>
@@ -22523,7 +22522,7 @@
         <v>15</v>
       </c>
       <c r="E477" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F477" s="3">
         <v>2022</v>
@@ -22535,13 +22534,13 @@
         <v>17</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J477" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K477" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L477" s="5">
         <v>44585</v>
@@ -22579,7 +22578,7 @@
         <v>17</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J478" s="3" t="s">
         <v>24</v>
@@ -22609,7 +22608,7 @@
         <v>34</v>
       </c>
       <c r="E479" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F479" s="3">
         <v>2023</v>
@@ -22621,13 +22620,13 @@
         <v>36</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J479" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K479" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L479" s="5">
         <v>44956</v>
@@ -22653,7 +22652,7 @@
         <v>34</v>
       </c>
       <c r="E480" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F480" s="3">
         <v>2021</v>
@@ -22665,13 +22664,13 @@
         <v>17</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J480" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K480" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L480" s="5">
         <v>44355</v>
@@ -22685,19 +22684,19 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E481" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E481" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="F481" s="3">
         <v>2024</v>
@@ -22709,13 +22708,13 @@
         <v>36</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J481" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K481" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L481" s="5">
         <v>45281</v>
@@ -22741,7 +22740,7 @@
         <v>34</v>
       </c>
       <c r="E482" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F482" s="3">
         <v>2019</v>
@@ -22753,13 +22752,13 @@
         <v>17</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J482" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K482" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L482" s="5">
         <v>43346</v>
@@ -22785,7 +22784,7 @@
         <v>34</v>
       </c>
       <c r="E483" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F483" s="3">
         <v>2018</v>
@@ -22797,13 +22796,13 @@
         <v>17</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J483" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K483" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L483" s="5">
         <v>43195</v>
@@ -22829,7 +22828,7 @@
         <v>34</v>
       </c>
       <c r="E484" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F484" s="3">
         <v>2021</v>
@@ -22841,13 +22840,13 @@
         <v>36</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J484" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K484" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L484" s="5">
         <v>44279</v>
@@ -22873,7 +22872,7 @@
         <v>15</v>
       </c>
       <c r="E485" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F485" s="3">
         <v>2012</v>
@@ -22885,13 +22884,13 @@
         <v>17</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J485" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K485" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L485" s="5">
         <v>40878</v>
@@ -22917,7 +22916,7 @@
         <v>34</v>
       </c>
       <c r="E486" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F486" s="3">
         <v>2021</v>
@@ -22929,13 +22928,13 @@
         <v>36</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J486" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K486" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L486" s="5">
         <v>44207</v>
@@ -22949,19 +22948,19 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E487" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F487" s="3">
         <v>2023</v>
@@ -22973,13 +22972,13 @@
         <v>36</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J487" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K487" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L487" s="5">
         <v>44837</v>
@@ -23017,7 +23016,7 @@
         <v>17</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J488" s="3" t="s">
         <v>24</v>
@@ -23057,7 +23056,7 @@
         <v>17</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J489" s="3" t="s">
         <v>24</v>
@@ -23085,7 +23084,7 @@
         <v>15</v>
       </c>
       <c r="E490" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F490" s="3">
         <v>2010</v>
@@ -23097,13 +23096,13 @@
         <v>17</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J490" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K490" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L490" s="5">
         <v>39959</v>
@@ -23123,13 +23122,13 @@
         <v>32</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E491" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F491" s="3">
         <v>2020</v>
@@ -23141,13 +23140,13 @@
         <v>36</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J491" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K491" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L491" s="5">
         <v>44278</v>
@@ -23167,13 +23166,13 @@
         <v>32</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E492" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F492" s="3">
         <v>2020</v>
@@ -23185,13 +23184,13 @@
         <v>36</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J492" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K492" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L492" s="5">
         <v>44018</v>
@@ -23217,7 +23216,7 @@
         <v>34</v>
       </c>
       <c r="E493" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F493" s="3">
         <v>2021</v>
@@ -23229,13 +23228,13 @@
         <v>17</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J493" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K493" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L493" s="5">
         <v>44284</v>
@@ -23261,7 +23260,7 @@
         <v>34</v>
       </c>
       <c r="E494" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F494" s="3">
         <v>2020</v>
@@ -23273,13 +23272,13 @@
         <v>17</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J494" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K494" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L494" s="5">
         <v>43997</v>
@@ -23305,7 +23304,7 @@
         <v>15</v>
       </c>
       <c r="E495" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F495" s="3">
         <v>2013</v>
@@ -23317,13 +23316,13 @@
         <v>17</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J495" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K495" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L495" s="5">
         <v>41187</v>
@@ -23349,7 +23348,7 @@
         <v>34</v>
       </c>
       <c r="E496" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F496" s="3">
         <v>2019</v>
@@ -23361,13 +23360,13 @@
         <v>36</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K496" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L496" s="5">
         <v>43235</v>
@@ -23393,7 +23392,7 @@
         <v>34</v>
       </c>
       <c r="E497" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F497" s="3">
         <v>2019</v>
@@ -23405,13 +23404,13 @@
         <v>36</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J497" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K497" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L497" s="5">
         <v>43255</v>
@@ -23437,7 +23436,7 @@
         <v>34</v>
       </c>
       <c r="E498" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F498" s="3">
         <v>2020</v>
@@ -23449,13 +23448,13 @@
         <v>36</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J498" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K498" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L498" s="5">
         <v>43798</v>
@@ -23475,13 +23474,13 @@
         <v>32</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E499" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F499" s="3">
         <v>2020</v>
@@ -23493,13 +23492,13 @@
         <v>36</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J499" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K499" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L499" s="5">
         <v>43983</v>
@@ -23519,13 +23518,13 @@
         <v>32</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E500" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F500" s="3">
         <v>2021</v>
@@ -23537,13 +23536,13 @@
         <v>36</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J500" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K500" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L500" s="5">
         <v>44181</v>
@@ -23563,13 +23562,13 @@
         <v>32</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E501" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F501" s="3">
         <v>2020</v>
@@ -23581,13 +23580,13 @@
         <v>36</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J501" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K501" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L501" s="5">
         <v>43921</v>
@@ -23607,13 +23606,13 @@
         <v>32</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E502" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F502" s="3">
         <v>2018</v>
@@ -23625,13 +23624,13 @@
         <v>36</v>
       </c>
       <c r="I502" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J502" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J502" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="K502" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L502" s="5">
         <v>43215</v>
@@ -23666,7 +23665,7 @@
         <v>35</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I503" s="3">
         <v>185</v>
@@ -23710,7 +23709,7 @@
         <v>21</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I504" s="3">
         <v>198</v>
@@ -23783,7 +23782,7 @@
         <v>32</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>34</v>
@@ -23798,7 +23797,7 @@
         <v>35</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I506" s="3">
         <v>355</v>
@@ -23827,7 +23826,7 @@
         <v>32</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>34</v>
@@ -23871,7 +23870,7 @@
         <v>13</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>15</v>
@@ -23957,7 +23956,7 @@
         <v>13</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>34</v>
@@ -24089,7 +24088,7 @@
         <v>32</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>15</v>
@@ -24221,7 +24220,7 @@
         <v>32</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>34</v>
@@ -24236,7 +24235,7 @@
         <v>16</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I516" s="3">
         <v>191</v>
@@ -24309,7 +24308,7 @@
         <v>32</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>34</v>
@@ -24324,7 +24323,7 @@
         <v>16</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I518" s="3">
         <v>191</v>
@@ -24353,7 +24352,7 @@
         <v>13</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>15</v>
@@ -24368,7 +24367,7 @@
         <v>35</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I519" s="3">
         <v>191</v>
@@ -24439,7 +24438,7 @@
         <v>32</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>34</v>
@@ -24454,7 +24453,7 @@
         <v>16</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I521" s="3">
         <v>198</v>
@@ -24483,7 +24482,7 @@
         <v>32</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>34</v>
@@ -24527,7 +24526,7 @@
         <v>32</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>34</v>
@@ -24542,7 +24541,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I523" s="3">
         <v>200</v>
@@ -24571,7 +24570,7 @@
         <v>13</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D524" s="3" t="s">
         <v>15</v>
@@ -24630,7 +24629,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I525" s="3">
         <v>253</v>
@@ -24659,7 +24658,7 @@
         <v>32</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>34</v>
@@ -24703,7 +24702,7 @@
         <v>32</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D527" s="3" t="s">
         <v>15</v>
@@ -24718,7 +24717,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I527" s="3">
         <v>184</v>
@@ -24806,7 +24805,7 @@
         <v>21</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I529" s="3">
         <v>251</v>
@@ -24835,7 +24834,7 @@
         <v>32</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>34</v>
@@ -24850,7 +24849,7 @@
         <v>16</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I530" s="3">
         <v>198</v>
@@ -24879,7 +24878,7 @@
         <v>32</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>34</v>
@@ -24894,7 +24893,7 @@
         <v>35</v>
       </c>
       <c r="H531" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I531" s="3">
         <v>191</v>
@@ -24923,7 +24922,7 @@
         <v>32</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>34</v>
@@ -24938,7 +24937,7 @@
         <v>16</v>
       </c>
       <c r="H532" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I532" s="3">
         <v>192</v>
@@ -24967,7 +24966,7 @@
         <v>13</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>15</v>
@@ -25097,7 +25096,7 @@
         <v>32</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>34</v>
@@ -25112,7 +25111,7 @@
         <v>35</v>
       </c>
       <c r="H536" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I536" s="3">
         <v>191</v>
@@ -25183,7 +25182,7 @@
         <v>32</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>34</v>
@@ -25227,7 +25226,7 @@
         <v>32</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>34</v>
@@ -25271,7 +25270,7 @@
         <v>32</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>15</v>
@@ -25315,7 +25314,7 @@
         <v>32</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>34</v>
@@ -25359,7 +25358,7 @@
         <v>13</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D542" s="3" t="s">
         <v>34</v>
@@ -25447,7 +25446,7 @@
         <v>32</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>15</v>
@@ -25556,7 +25555,7 @@
         <v>210</v>
       </c>
       <c r="J546" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K546" s="4">
         <v>2521</v>
@@ -25579,7 +25578,7 @@
         <v>32</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>34</v>
@@ -25594,7 +25593,7 @@
         <v>21</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I547" s="3">
         <v>198</v>
@@ -25623,7 +25622,7 @@
         <v>32</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>34</v>
@@ -25667,7 +25666,7 @@
         <v>32</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D549" s="3" t="s">
         <v>34</v>
@@ -25682,7 +25681,7 @@
         <v>21</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I549" s="3">
         <v>198</v>
@@ -25799,7 +25798,7 @@
         <v>13</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>15</v>
@@ -26063,7 +26062,7 @@
         <v>32</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>34</v>
@@ -26679,7 +26678,7 @@
         <v>32</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D572" s="3" t="s">
         <v>34</v>
@@ -26855,7 +26854,7 @@
         <v>13</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>34</v>
@@ -28032,7 +28031,7 @@
         <v>19</v>
       </c>
       <c r="N602" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.3">
@@ -28067,7 +28066,7 @@
         <v>18</v>
       </c>
       <c r="K603" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L603" s="5">
         <v>39465</v>
@@ -28087,13 +28086,13 @@
         <v>32</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D604" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E604" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F604" s="3">
         <v>2020</v>
@@ -28111,7 +28110,7 @@
         <v>27</v>
       </c>
       <c r="K604" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L604" s="5">
         <v>44074</v>
@@ -28137,7 +28136,7 @@
         <v>34</v>
       </c>
       <c r="E605" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F605" s="3">
         <v>2019</v>
@@ -28149,13 +28148,13 @@
         <v>36</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J605" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K605" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L605" s="5">
         <v>43389</v>
@@ -28181,7 +28180,7 @@
         <v>15</v>
       </c>
       <c r="E606" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F606" s="3">
         <v>2007</v>
@@ -28199,7 +28198,7 @@
         <v>24</v>
       </c>
       <c r="K606" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L606" s="5">
         <v>39609</v>
@@ -28225,7 +28224,7 @@
         <v>34</v>
       </c>
       <c r="E607" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F607" s="3">
         <v>2016</v>
@@ -28237,7 +28236,7 @@
         <v>36</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J607" s="3" t="s">
         <v>58</v>
@@ -28269,7 +28268,7 @@
         <v>34</v>
       </c>
       <c r="E608" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F608" s="3">
         <v>2017</v>
@@ -28287,7 +28286,7 @@
         <v>27</v>
       </c>
       <c r="K608" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L608" s="5">
         <v>42774</v>
@@ -28313,7 +28312,7 @@
         <v>34</v>
       </c>
       <c r="E609" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F609" s="3">
         <v>2014</v>
@@ -28325,13 +28324,13 @@
         <v>17</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J609" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K609" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L609" s="5">
         <v>41656</v>
@@ -28357,7 +28356,7 @@
         <v>15</v>
       </c>
       <c r="E610" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F610" s="3">
         <v>2012</v>
@@ -28369,13 +28368,13 @@
         <v>17</v>
       </c>
       <c r="I610" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J610" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K610" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L610" s="5">
         <v>41081</v>
@@ -28445,7 +28444,7 @@
         <v>34</v>
       </c>
       <c r="E612" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F612" s="3">
         <v>2024</v>
@@ -28457,13 +28456,13 @@
         <v>17</v>
       </c>
       <c r="I612" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J612" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K612" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L612" s="5">
         <v>45281</v>
@@ -28489,7 +28488,7 @@
         <v>15</v>
       </c>
       <c r="E613" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F613" s="3">
         <v>2012</v>
@@ -28501,13 +28500,13 @@
         <v>17</v>
       </c>
       <c r="I613" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J613" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K613" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L613" s="5">
         <v>40707</v>
@@ -28527,13 +28526,13 @@
         <v>32</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D614" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E614" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F614" s="3">
         <v>2022</v>
@@ -28545,7 +28544,7 @@
         <v>17</v>
       </c>
       <c r="I614" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J614" s="3" t="s">
         <v>24</v>
@@ -28577,7 +28576,7 @@
         <v>34</v>
       </c>
       <c r="E615" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F615" s="3">
         <v>2022</v>
@@ -28589,7 +28588,7 @@
         <v>36</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J615" s="3" t="s">
         <v>39</v>
@@ -28619,7 +28618,7 @@
         <v>15</v>
       </c>
       <c r="E616" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F616" s="3">
         <v>2020</v>
@@ -28631,13 +28630,13 @@
         <v>17</v>
       </c>
       <c r="I616" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J616" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K616" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L616" s="5">
         <v>43649</v>
@@ -28663,7 +28662,7 @@
         <v>15</v>
       </c>
       <c r="E617" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F617" s="3">
         <v>2013</v>
@@ -28675,13 +28674,13 @@
         <v>17</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J617" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K617" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L617" s="5">
         <v>41242</v>
@@ -28701,13 +28700,13 @@
         <v>32</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D618" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E618" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F618" s="3">
         <v>2023</v>
@@ -28719,13 +28718,13 @@
         <v>36</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J618" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K618" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L618" s="5">
         <v>44950</v>
@@ -28745,13 +28744,13 @@
         <v>32</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E619" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F619" s="3">
         <v>2023</v>
@@ -28763,13 +28762,13 @@
         <v>36</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J619" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K619" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L619" s="5">
         <v>44924</v>
@@ -28789,13 +28788,13 @@
         <v>32</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D620" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E620" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F620" s="3">
         <v>2023</v>
@@ -28807,13 +28806,13 @@
         <v>36</v>
       </c>
       <c r="I620" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J620" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K620" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L620" s="5">
         <v>45016</v>
@@ -28839,7 +28838,7 @@
         <v>34</v>
       </c>
       <c r="E621" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F621" s="3">
         <v>2023</v>
@@ -28851,13 +28850,13 @@
         <v>36</v>
       </c>
       <c r="I621" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J621" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K621" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L621" s="5">
         <v>44819</v>
@@ -28883,7 +28882,7 @@
         <v>15</v>
       </c>
       <c r="E622" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F622" s="3">
         <v>2011</v>
@@ -28895,13 +28894,13 @@
         <v>17</v>
       </c>
       <c r="I622" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J622" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K622" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L622" s="5">
         <v>40451</v>
@@ -28921,13 +28920,13 @@
         <v>32</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D623" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E623" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F623" s="3">
         <v>2021</v>
@@ -28939,7 +28938,7 @@
         <v>36</v>
       </c>
       <c r="I623" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J623" s="3" t="s">
         <v>18</v>
@@ -28971,7 +28970,7 @@
         <v>34</v>
       </c>
       <c r="E624" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F624" s="3">
         <v>2014</v>
@@ -28983,13 +28982,13 @@
         <v>35</v>
       </c>
       <c r="I624" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J624" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K624" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L624" s="5">
         <v>41792</v>
@@ -29015,7 +29014,7 @@
         <v>34</v>
       </c>
       <c r="E625" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F625" s="3">
         <v>2016</v>
@@ -29027,13 +29026,13 @@
         <v>17</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J625" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K625" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L625" s="5">
         <v>42419</v>
@@ -29059,7 +29058,7 @@
         <v>34</v>
       </c>
       <c r="E626" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F626" s="3">
         <v>2010</v>
@@ -29071,7 +29070,7 @@
         <v>17</v>
       </c>
       <c r="I626" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J626" s="3" t="s">
         <v>18</v>
@@ -29103,7 +29102,7 @@
         <v>34</v>
       </c>
       <c r="E627" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F627" s="3">
         <v>2014</v>
@@ -29115,13 +29114,13 @@
         <v>36</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J627" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K627" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L627" s="5">
         <v>41687</v>
@@ -29141,13 +29140,13 @@
         <v>32</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D628" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E628" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F628" s="3">
         <v>2022</v>
@@ -29159,7 +29158,7 @@
         <v>36</v>
       </c>
       <c r="I628" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J628" s="3" t="s">
         <v>24</v>
@@ -29191,7 +29190,7 @@
         <v>34</v>
       </c>
       <c r="E629" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F629" s="3">
         <v>2021</v>
@@ -29209,7 +29208,7 @@
         <v>27</v>
       </c>
       <c r="K629" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L629" s="5">
         <v>44109</v>
@@ -29229,13 +29228,13 @@
         <v>32</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D630" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E630" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F630" s="3">
         <v>2022</v>
@@ -29247,13 +29246,13 @@
         <v>36</v>
       </c>
       <c r="I630" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J630" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K630" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L630" s="5">
         <v>44456</v>
@@ -29279,7 +29278,7 @@
         <v>34</v>
       </c>
       <c r="E631" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F631" s="3">
         <v>2019</v>
@@ -29291,7 +29290,7 @@
         <v>17</v>
       </c>
       <c r="I631" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J631" s="3" t="s">
         <v>24</v>
@@ -29317,13 +29316,13 @@
         <v>32</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E632" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F632" s="3">
         <v>2019</v>
@@ -29335,7 +29334,7 @@
         <v>36</v>
       </c>
       <c r="I632" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J632" s="3" t="s">
         <v>18</v>
@@ -29367,7 +29366,7 @@
         <v>34</v>
       </c>
       <c r="E633" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F633" s="3">
         <v>2017</v>
@@ -29379,13 +29378,13 @@
         <v>17</v>
       </c>
       <c r="I633" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J633" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K633" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L633" s="5">
         <v>42640</v>
@@ -29405,13 +29404,13 @@
         <v>32</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E634" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F634" s="3">
         <v>2022</v>
@@ -29423,7 +29422,7 @@
         <v>36</v>
       </c>
       <c r="I634" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J634" s="3" t="s">
         <v>27</v>
@@ -29455,7 +29454,7 @@
         <v>34</v>
       </c>
       <c r="E635" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F635" s="3">
         <v>2014</v>
@@ -29467,13 +29466,13 @@
         <v>36</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J635" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K635" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L635" s="5">
         <v>41550</v>
@@ -29493,13 +29492,13 @@
         <v>32</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D636" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E636" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F636" s="3">
         <v>2023</v>
@@ -29511,13 +29510,13 @@
         <v>36</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J636" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K636" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L636" s="5">
         <v>45160</v>
@@ -29537,13 +29536,13 @@
         <v>32</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D637" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E637" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F637" s="3">
         <v>2021</v>
@@ -29561,7 +29560,7 @@
         <v>18</v>
       </c>
       <c r="K637" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L637" s="5">
         <v>44281</v>
@@ -29587,7 +29586,7 @@
         <v>34</v>
       </c>
       <c r="E638" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F638" s="3">
         <v>2019</v>
@@ -29599,13 +29598,13 @@
         <v>17</v>
       </c>
       <c r="I638" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J638" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K638" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L638" s="5">
         <v>43279</v>
@@ -29631,7 +29630,7 @@
         <v>34</v>
       </c>
       <c r="E639" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F639" s="3">
         <v>2021</v>
@@ -29643,7 +29642,7 @@
         <v>36</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J639" s="3" t="s">
         <v>39</v>
@@ -29675,7 +29674,7 @@
         <v>34</v>
       </c>
       <c r="E640" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F640" s="3">
         <v>2013</v>
@@ -29687,13 +29686,13 @@
         <v>17</v>
       </c>
       <c r="I640" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J640" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K640" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L640" s="5">
         <v>41250</v>
@@ -29719,7 +29718,7 @@
         <v>15</v>
       </c>
       <c r="E641" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F641" s="3">
         <v>2004</v>
@@ -29731,7 +29730,7 @@
         <v>17</v>
       </c>
       <c r="I641" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J641" s="3" t="s">
         <v>44</v>
@@ -29763,7 +29762,7 @@
         <v>34</v>
       </c>
       <c r="E642" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F642" s="3">
         <v>2017</v>
@@ -29775,13 +29774,13 @@
         <v>36</v>
       </c>
       <c r="I642" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J642" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K642" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L642" s="5">
         <v>42815</v>
@@ -29807,7 +29806,7 @@
         <v>34</v>
       </c>
       <c r="E643" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F643" s="3">
         <v>2014</v>
@@ -29819,13 +29818,13 @@
         <v>17</v>
       </c>
       <c r="I643" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J643" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K643" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L643" s="5">
         <v>41782</v>
@@ -29851,7 +29850,7 @@
         <v>34</v>
       </c>
       <c r="E644" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F644" s="3">
         <v>2009</v>
@@ -29863,7 +29862,7 @@
         <v>36</v>
       </c>
       <c r="I644" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J644" s="3" t="s">
         <v>27</v>
@@ -29895,7 +29894,7 @@
         <v>15</v>
       </c>
       <c r="E645" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F645" s="3">
         <v>2014</v>
@@ -29907,7 +29906,7 @@
         <v>17</v>
       </c>
       <c r="I645" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J645" s="3" t="s">
         <v>29</v>
@@ -29933,13 +29932,13 @@
         <v>32</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D646" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E646" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F646" s="3">
         <v>2023</v>
@@ -29951,13 +29950,13 @@
         <v>36</v>
       </c>
       <c r="I646" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J646" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K646" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L646" s="5">
         <v>44897</v>
@@ -29983,7 +29982,7 @@
         <v>34</v>
       </c>
       <c r="E647" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F647" s="3">
         <v>2019</v>
@@ -29995,13 +29994,13 @@
         <v>36</v>
       </c>
       <c r="I647" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J647" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K647" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L647" s="5">
         <v>43279</v>
@@ -30027,7 +30026,7 @@
         <v>34</v>
       </c>
       <c r="E648" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F648" s="3">
         <v>2020</v>
@@ -30039,13 +30038,13 @@
         <v>36</v>
       </c>
       <c r="I648" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J648" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K648" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L648" s="5">
         <v>43844</v>
@@ -30065,13 +30064,13 @@
         <v>32</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D649" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E649" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F649" s="3">
         <v>2022</v>
@@ -30083,13 +30082,13 @@
         <v>36</v>
       </c>
       <c r="I649" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J649" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K649" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L649" s="5">
         <v>44621</v>
@@ -30115,7 +30114,7 @@
         <v>34</v>
       </c>
       <c r="E650" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F650" s="3">
         <v>2018</v>
@@ -30127,13 +30126,13 @@
         <v>17</v>
       </c>
       <c r="I650" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J650" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K650" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L650" s="5">
         <v>43207</v>
@@ -30159,7 +30158,7 @@
         <v>34</v>
       </c>
       <c r="E651" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F651" s="3">
         <v>2015</v>
@@ -30171,13 +30170,13 @@
         <v>36</v>
       </c>
       <c r="I651" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J651" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K651" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L651" s="5">
         <v>42041</v>
@@ -30203,7 +30202,7 @@
         <v>15</v>
       </c>
       <c r="E652" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F652" s="3">
         <v>2004</v>
@@ -30215,13 +30214,13 @@
         <v>36</v>
       </c>
       <c r="I652" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J652" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K652" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L652" s="5">
         <v>37791</v>
@@ -30256,7 +30255,7 @@
         <v>16</v>
       </c>
       <c r="H653" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I653" s="3">
         <v>191</v>
@@ -30344,7 +30343,7 @@
         <v>26</v>
       </c>
       <c r="H655" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I655" s="3">
         <v>177</v>
@@ -30373,7 +30372,7 @@
         <v>32</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D656" s="3" t="s">
         <v>34</v>
@@ -30432,7 +30431,7 @@
         <v>21</v>
       </c>
       <c r="H657" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I657" s="3">
         <v>141</v>
@@ -30476,7 +30475,7 @@
         <v>16</v>
       </c>
       <c r="H658" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I658" s="3">
         <v>136</v>
@@ -30505,7 +30504,7 @@
         <v>32</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D659" s="3" t="s">
         <v>34</v>
@@ -30681,7 +30680,7 @@
         <v>32</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D663" s="3" t="s">
         <v>34</v>
@@ -30696,7 +30695,7 @@
         <v>21</v>
       </c>
       <c r="H663" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I663" s="3">
         <v>406</v>
@@ -30740,7 +30739,7 @@
         <v>21</v>
       </c>
       <c r="H664" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I664" s="3">
         <v>150</v>
@@ -30784,7 +30783,7 @@
         <v>16</v>
       </c>
       <c r="H665" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I665" s="3">
         <v>181</v>
@@ -30828,7 +30827,7 @@
         <v>16</v>
       </c>
       <c r="H666" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I666" s="3">
         <v>120</v>
@@ -30872,7 +30871,7 @@
         <v>16</v>
       </c>
       <c r="H667" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I667" s="3">
         <v>116</v>
@@ -30913,10 +30912,10 @@
         <v>2014</v>
       </c>
       <c r="G668" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H668" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I668" s="3">
         <v>116</v>
@@ -30989,7 +30988,7 @@
         <v>32</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D670" s="3" t="s">
         <v>34</v>
@@ -31004,7 +31003,7 @@
         <v>16</v>
       </c>
       <c r="H670" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I670" s="3">
         <v>245</v>
@@ -31022,7 +31021,7 @@
         <v>19</v>
       </c>
       <c r="N670" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.3">
@@ -31033,7 +31032,7 @@
         <v>32</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>34</v>
@@ -31136,7 +31135,7 @@
         <v>16</v>
       </c>
       <c r="H673" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I673" s="3">
         <v>180</v>
@@ -31165,7 +31164,7 @@
         <v>32</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>34</v>
@@ -31224,7 +31223,7 @@
         <v>35</v>
       </c>
       <c r="H675" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I675" s="3">
         <v>256</v>
@@ -31253,7 +31252,7 @@
         <v>32</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D676" s="3" t="s">
         <v>34</v>
@@ -31268,7 +31267,7 @@
         <v>35</v>
       </c>
       <c r="H676" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I676" s="3">
         <v>266</v>
@@ -31330,7 +31329,7 @@
         <v>19</v>
       </c>
       <c r="N677" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.3">
@@ -31418,7 +31417,7 @@
         <v>19</v>
       </c>
       <c r="N679" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.3">
@@ -31444,7 +31443,7 @@
         <v>35</v>
       </c>
       <c r="H680" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I680" s="3">
         <v>256</v>
@@ -31576,7 +31575,7 @@
         <v>16</v>
       </c>
       <c r="H683" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I683" s="3">
         <v>165</v>
@@ -31594,7 +31593,7 @@
         <v>19</v>
       </c>
       <c r="N683" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.3">
@@ -31664,7 +31663,7 @@
         <v>35</v>
       </c>
       <c r="H685" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I685" s="3">
         <v>240</v>
@@ -31743,7 +31742,7 @@
         <v>34</v>
       </c>
       <c r="E687" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F687" s="3">
         <v>2020</v>
@@ -31787,7 +31786,7 @@
         <v>34</v>
       </c>
       <c r="E688" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F688" s="3">
         <v>2024</v>
@@ -31796,7 +31795,7 @@
         <v>35</v>
       </c>
       <c r="H688" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I688" s="3">
         <v>256</v>
@@ -31840,7 +31839,7 @@
         <v>16</v>
       </c>
       <c r="H689" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I689" s="3">
         <v>170</v>
@@ -31869,7 +31868,7 @@
         <v>32</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D690" s="3" t="s">
         <v>34</v>
@@ -31913,7 +31912,7 @@
         <v>32</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D691" s="3" t="s">
         <v>34</v>
@@ -31957,13 +31956,13 @@
         <v>32</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D692" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E692" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F692" s="3">
         <v>2025</v>
@@ -32014,7 +32013,7 @@
         <v>16</v>
       </c>
       <c r="H693" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I693" s="3">
         <v>181</v>
@@ -32043,13 +32042,13 @@
         <v>32</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D694" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E694" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F694" s="3">
         <v>2025</v>
@@ -32100,7 +32099,7 @@
         <v>35</v>
       </c>
       <c r="H695" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I695" s="3">
         <v>232</v>
@@ -32144,7 +32143,7 @@
         <v>16</v>
       </c>
       <c r="H696" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I696" s="3">
         <v>180</v>
@@ -32217,7 +32216,7 @@
         <v>32</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>34</v>
@@ -32292,7 +32291,7 @@
         <v>19</v>
       </c>
       <c r="N699" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.3">
@@ -32318,7 +32317,7 @@
         <v>35</v>
       </c>
       <c r="H700" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I700" s="3">
         <v>131</v>
@@ -32347,7 +32346,7 @@
         <v>32</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>34</v>
@@ -32404,7 +32403,7 @@
         <v>21</v>
       </c>
       <c r="H702" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I702" s="3">
         <v>97</v>
@@ -32521,7 +32520,7 @@
         <v>32</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>34</v>
@@ -32609,7 +32608,7 @@
         <v>32</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D707" s="3" t="s">
         <v>34</v>
@@ -32665,7 +32664,7 @@
         <v>2017</v>
       </c>
       <c r="G708" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H708" s="3" t="s">
         <v>36</v>
@@ -32762,7 +32761,7 @@
         <v>116</v>
       </c>
       <c r="J710" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K710" s="4">
         <v>1560</v>
@@ -32785,7 +32784,7 @@
         <v>32</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D711" s="3" t="s">
         <v>34</v>
@@ -32797,7 +32796,7 @@
         <v>2018</v>
       </c>
       <c r="G711" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H711" s="3" t="s">
         <v>36</v>
@@ -32806,7 +32805,7 @@
         <v>407</v>
       </c>
       <c r="J711" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K711" s="4">
         <v>1969</v>
@@ -32961,7 +32960,7 @@
         <v>32</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>34</v>
@@ -33319,7 +33318,7 @@
         <v>34</v>
       </c>
       <c r="E723" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F723" s="3">
         <v>2021</v>
@@ -33451,7 +33450,7 @@
         <v>34</v>
       </c>
       <c r="E726" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F726" s="3">
         <v>2007</v>
@@ -33539,7 +33538,7 @@
         <v>34</v>
       </c>
       <c r="E728" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F728" s="3">
         <v>2018</v>
@@ -33715,7 +33714,7 @@
         <v>34</v>
       </c>
       <c r="E732" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F732" s="3">
         <v>2023</v>
@@ -33753,13 +33752,13 @@
         <v>32</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E733" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F733" s="3">
         <v>2018</v>
@@ -33797,13 +33796,13 @@
         <v>32</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E734" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F734" s="3">
         <v>2023</v>
@@ -33847,7 +33846,7 @@
         <v>34</v>
       </c>
       <c r="E735" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F735" s="3">
         <v>2024</v>
@@ -33883,7 +33882,7 @@
         <v>32</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>34</v>
@@ -33927,7 +33926,7 @@
         <v>32</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D737" s="3" t="s">
         <v>34</v>
@@ -34015,7 +34014,7 @@
         <v>32</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D739" s="3" t="s">
         <v>34</v>
@@ -34027,7 +34026,7 @@
         <v>2021</v>
       </c>
       <c r="G739" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H739" s="3" t="s">
         <v>36</v>
@@ -34059,19 +34058,19 @@
         <v>32</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D740" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E740" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F740" s="3">
         <v>2023</v>
       </c>
       <c r="G740" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H740" s="3" t="s">
         <v>36</v>
@@ -34136,7 +34135,7 @@
         <v>19</v>
       </c>
       <c r="N741" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.3">
@@ -34159,7 +34158,7 @@
         <v>2018</v>
       </c>
       <c r="G742" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H742" s="3" t="s">
         <v>17</v>
@@ -34224,7 +34223,7 @@
         <v>19</v>
       </c>
       <c r="N743" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
@@ -34235,7 +34234,7 @@
         <v>32</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D744" s="3" t="s">
         <v>34</v>
@@ -34247,7 +34246,7 @@
         <v>2020</v>
       </c>
       <c r="G744" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H744" s="3" t="s">
         <v>17</v>
@@ -34291,7 +34290,7 @@
         <v>2013</v>
       </c>
       <c r="G745" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H745" s="3" t="s">
         <v>17</v>
@@ -34329,13 +34328,13 @@
         <v>34</v>
       </c>
       <c r="E746" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F746" s="3">
         <v>2022</v>
       </c>
       <c r="G746" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H746" s="3" t="s">
         <v>36</v>
@@ -34411,19 +34410,19 @@
         <v>32</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D748" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E748" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F748" s="3">
         <v>2024</v>
       </c>
       <c r="G748" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H748" s="3" t="s">
         <v>36</v>
@@ -34461,7 +34460,7 @@
         <v>34</v>
       </c>
       <c r="E749" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F749" s="3">
         <v>2018</v>
@@ -34532,7 +34531,7 @@
         <v>19</v>
       </c>
       <c r="N750" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.3">
@@ -34549,7 +34548,7 @@
         <v>34</v>
       </c>
       <c r="E751" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F751" s="3">
         <v>2021</v>
@@ -34593,7 +34592,7 @@
         <v>34</v>
       </c>
       <c r="E752" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F752" s="3">
         <v>2019</v>
@@ -34664,7 +34663,7 @@
         <v>19</v>
       </c>
       <c r="N753" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.3">
@@ -34708,7 +34707,7 @@
         <v>19</v>
       </c>
       <c r="N754" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.3">
@@ -34807,7 +34806,7 @@
         <v>32</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D757" s="3" t="s">
         <v>34</v>
@@ -34895,7 +34894,7 @@
         <v>32</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>34</v>
@@ -34939,7 +34938,7 @@
         <v>32</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D760" s="3" t="s">
         <v>34</v>
@@ -34983,7 +34982,7 @@
         <v>32</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D761" s="3" t="s">
         <v>15</v>
@@ -35071,7 +35070,7 @@
         <v>32</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>34</v>
@@ -35159,7 +35158,7 @@
         <v>32</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>34</v>
@@ -35247,7 +35246,7 @@
         <v>32</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D767" s="3" t="s">
         <v>34</v>
@@ -36259,7 +36258,7 @@
         <v>32</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>34</v>
@@ -36787,7 +36786,7 @@
         <v>32</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>34</v>
@@ -36831,7 +36830,7 @@
         <v>32</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>34</v>
@@ -36963,7 +36962,7 @@
         <v>32</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D806" s="3" t="s">
         <v>34</v>
@@ -37755,7 +37754,7 @@
         <v>13</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>34</v>
@@ -38325,7 +38324,7 @@
         <v>13</v>
       </c>
       <c r="C837" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D837" s="3" t="s">
         <v>15</v>
@@ -38545,7 +38544,7 @@
         <v>13</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D842" s="3" t="s">
         <v>15</v>
@@ -38786,7 +38785,7 @@
         <v>191</v>
       </c>
       <c r="J847" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K847" s="4">
         <v>2400</v>
@@ -39027,7 +39026,7 @@
         <v>32</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>34</v>
@@ -39039,7 +39038,7 @@
         <v>2021</v>
       </c>
       <c r="G853" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H853" s="3" t="s">
         <v>36</v>
@@ -39051,7 +39050,7 @@
         <v>134</v>
       </c>
       <c r="K853" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L853" s="5">
         <v>44188</v>
@@ -39060,7 +39059,7 @@
         <v>131</v>
       </c>
       <c r="N853" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.3">
@@ -39071,7 +39070,7 @@
         <v>32</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D854" s="3" t="s">
         <v>34</v>
@@ -39083,7 +39082,7 @@
         <v>2021</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>36</v>
@@ -39095,7 +39094,7 @@
         <v>39</v>
       </c>
       <c r="K854" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L854" s="5">
         <v>44105</v>
@@ -39127,7 +39126,7 @@
         <v>2021</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>36</v>
@@ -39136,10 +39135,10 @@
         <v>198</v>
       </c>
       <c r="J855" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K855" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L855" s="5">
         <v>44168</v>
@@ -39259,7 +39258,7 @@
         <v>2016</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>36</v>
@@ -39291,7 +39290,7 @@
         <v>32</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>34</v>
@@ -39303,7 +39302,7 @@
         <v>2023</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>36</v>
@@ -39335,7 +39334,7 @@
         <v>32</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>34</v>
@@ -39356,7 +39355,7 @@
         <v>266</v>
       </c>
       <c r="J860" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K860" s="4">
         <v>1477</v>
@@ -39433,7 +39432,7 @@
         <v>2024</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>17</v>
@@ -39442,7 +39441,7 @@
         <v>200</v>
       </c>
       <c r="J862" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K862" s="4">
         <v>1969</v>
@@ -39509,7 +39508,7 @@
         <v>32</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D864" s="3" t="s">
         <v>34</v>
@@ -39521,7 +39520,7 @@
         <v>2023</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>36</v>
@@ -39574,7 +39573,7 @@
         <v>234</v>
       </c>
       <c r="J865" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K865" s="4"/>
       <c r="L865" s="5">
@@ -39651,7 +39650,7 @@
         <v>2018</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>17</v>
@@ -39660,7 +39659,7 @@
         <v>150</v>
       </c>
       <c r="J867" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K867" s="4">
         <v>1969</v>
@@ -39683,7 +39682,7 @@
         <v>32</v>
       </c>
       <c r="C868" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>34</v>
@@ -39695,7 +39694,7 @@
         <v>2022</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>36</v>
@@ -39815,7 +39814,7 @@
         <v>32</v>
       </c>
       <c r="C871" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D871" s="3" t="s">
         <v>34</v>
@@ -39924,7 +39923,7 @@
         <v>130</v>
       </c>
       <c r="J873" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K873" s="4">
         <v>1477</v>
@@ -40091,7 +40090,7 @@
         <v>2019</v>
       </c>
       <c r="G877" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H877" s="3" t="s">
         <v>17</v>
@@ -40100,7 +40099,7 @@
         <v>150</v>
       </c>
       <c r="J877" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K877" s="4">
         <v>1969</v>
@@ -40188,7 +40187,7 @@
         <v>414</v>
       </c>
       <c r="J879" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K879" s="4"/>
       <c r="L879" s="5">
@@ -40209,7 +40208,7 @@
         <v>13</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D880" s="3" t="s">
         <v>34</v>
@@ -40230,7 +40229,7 @@
         <v>340</v>
       </c>
       <c r="J880" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K880" s="4">
         <v>1969</v>
@@ -40265,7 +40264,7 @@
         <v>2011</v>
       </c>
       <c r="G881" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H881" s="3" t="s">
         <v>17</v>
@@ -40309,7 +40308,7 @@
         <v>2015</v>
       </c>
       <c r="G882" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H882" s="3" t="s">
         <v>17</v>
@@ -40353,7 +40352,7 @@
         <v>1994</v>
       </c>
       <c r="G883" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H883" s="3" t="s">
         <v>17</v>
@@ -40362,7 +40361,7 @@
         <v>165</v>
       </c>
       <c r="J883" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K883" s="4">
         <v>2316</v>
@@ -40397,7 +40396,7 @@
         <v>1989</v>
       </c>
       <c r="G884" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H884" s="3" t="s">
         <v>17</v>
@@ -40529,7 +40528,7 @@
         <v>2007</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>17</v>
@@ -40573,7 +40572,7 @@
         <v>2011</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>17</v>
@@ -40617,7 +40616,7 @@
         <v>2011</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>17</v>
@@ -40626,7 +40625,7 @@
         <v>177</v>
       </c>
       <c r="J889" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K889" s="4">
         <v>1984</v>
@@ -40649,7 +40648,7 @@
         <v>32</v>
       </c>
       <c r="C890" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D890" s="3" t="s">
         <v>34</v>
@@ -40661,7 +40660,7 @@
         <v>2021</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>36</v>
@@ -40693,7 +40692,7 @@
         <v>32</v>
       </c>
       <c r="C891" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D891" s="3" t="s">
         <v>34</v>
@@ -40714,7 +40713,7 @@
         <v>253</v>
       </c>
       <c r="J891" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K891" s="4">
         <v>1969</v>
@@ -40779,7 +40778,7 @@
         <v>32</v>
       </c>
       <c r="C893" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D893" s="3" t="s">
         <v>34</v>
@@ -40835,7 +40834,7 @@
         <v>2012</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>17</v>
@@ -40965,7 +40964,7 @@
         <v>2018</v>
       </c>
       <c r="G897" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H897" s="3" t="s">
         <v>17</v>
@@ -40974,7 +40973,7 @@
         <v>153</v>
       </c>
       <c r="J897" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K897" s="4">
         <v>1969</v>
@@ -41009,7 +41008,7 @@
         <v>2012</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>17</v>
@@ -41018,7 +41017,7 @@
         <v>116</v>
       </c>
       <c r="J898" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K898" s="4">
         <v>1560</v>
@@ -41053,7 +41052,7 @@
         <v>2012</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>17</v>
@@ -41085,7 +41084,7 @@
         <v>32</v>
       </c>
       <c r="C900" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D900" s="3" t="s">
         <v>34</v>
@@ -41129,7 +41128,7 @@
         <v>13</v>
       </c>
       <c r="C901" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D901" s="3" t="s">
         <v>34</v>
@@ -41185,7 +41184,7 @@
         <v>2021</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>36</v>
@@ -41194,7 +41193,7 @@
         <v>251</v>
       </c>
       <c r="J902" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K902" s="4">
         <v>1969</v>

--- a/datainsamling_blocket.xlsx
+++ b/datainsamling_blocket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HV-filesync\tara0001\Desktop\Data Scientist\R Programmering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CE2E8-E438-497B-A2E7-374E16893C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB97B50-B4DA-4D56-A4B5-43A83C9B95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEC3F5B5-7817-4CED-B248-53C5153428D3}"/>
   </bookViews>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:N918"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
+      <selection activeCell="Q415" sqref="Q415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
